--- a/smartHouseExam/smart_house_log.xlsx
+++ b/smartHouseExam/smart_house_log.xlsx
@@ -6,35 +6,61 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Котел" r:id="rId3" sheetId="1"/>
-    <sheet name="Отопление" r:id="rId4" sheetId="2"/>
-    <sheet name="Холодильник" r:id="rId5" sheetId="3"/>
+    <sheet name="Газопровод" r:id="rId3" sheetId="1"/>
+    <sheet name="Компьютер" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Время регистрации</t>
   </si>
   <si>
-    <t>Датчик температуры</t>
+    <t>Датчик давления</t>
   </si>
   <si>
     <t>Датчик утечки газа</t>
   </si>
   <si>
-    <t>Датчик давления</t>
-  </si>
-  <si>
     <t>Датчик влажности</t>
   </si>
   <si>
-    <t>2025-06-16 22:20:11</t>
-  </si>
-  <si>
-    <t>2025-06-16 22:20:21</t>
+    <t>2025-06-17 00:37:53</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:37:56</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:38:03</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:38:04</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:38:11</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:38:12</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:12</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:13</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:15</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:17</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:19</t>
+  </si>
+  <si>
+    <t>2025-06-17 00:40:21</t>
   </si>
 </sst>
 </file>
@@ -42,13 +68,63 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -86,18 +162,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -121,24 +207,134 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>66.396</v>
+        <v>0.014</v>
       </c>
       <c r="C2" t="n">
-        <v>2.196</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>70.982</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.856</v>
+      <c r="B4" t="n" s="4">
+        <v>0.007</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n" s="6">
+        <v>0.003</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -148,68 +344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.566</v>
-      </c>
-      <c r="C2" t="n">
-        <v>58.967</v>
-      </c>
-      <c r="D2" t="n" s="2">
-        <v>70.838</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.453</v>
-      </c>
-      <c r="C3" t="n">
-        <v>62.146</v>
-      </c>
-      <c r="D3" t="n" s="3">
-        <v>68.621</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -224,23 +359,103 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n" s="2">
-        <v>-2.243</v>
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27.432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n" s="3">
-        <v>-8.925</v>
+      <c r="B4" t="n">
+        <v>23.668</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32.914</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>29.323</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.645</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>28.603</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24.975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n" s="10">
+        <v>8.571</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n" s="11">
+        <v>10.452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="n" s="12">
+        <v>9.357</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="n" s="13">
+        <v>11.256</v>
       </c>
     </row>
   </sheetData>
